--- a/day7/third.xlsx
+++ b/day7/third.xlsx
@@ -434,7 +434,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45319.43642990092</v>
+        <v>45319.44872160291</v>
       </c>
     </row>
   </sheetData>
